--- a/result/compare/depthmap/result-etroit.xlsx
+++ b/result/compare/depthmap/result-etroit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\midaslarge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2923AD-5829-4A2A-9B6C-671D97D78793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55ED3B-0ADB-4785-ADC8-697E81FC35CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -70,16 +70,16 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>yolov5n</t>
-  </si>
-  <si>
-    <t>yolov5s</t>
-  </si>
-  <si>
     <t>yolov5m</t>
   </si>
   <si>
-    <t>yolov5l</t>
+    <t>depth large</t>
+  </si>
+  <si>
+    <t>depth etroit</t>
+  </si>
+  <si>
+    <t>yolo large</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5n</c:v>
+                  <c:v>yolo large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,7 +474,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.18461538461538463</c:v>
+                  <c:v>0.56603773584905659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,7 +486,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.27631578947368424</c:v>
+                  <c:v>0.77142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +507,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5s</c:v>
+                  <c:v>depth etroit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -541,7 +541,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.43076923076923079</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +553,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.48684210526315791</c:v>
+                  <c:v>0.69736842105263153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +608,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.52307692307692311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,7 +620,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.56578947368421051</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,7 +641,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5l</c:v>
+                  <c:v>depth large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -675,7 +675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.49056603773584906</c:v>
+                  <c:v>0.33962264150943394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +687,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1093,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5n</c:v>
+                  <c:v>yolo large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1127,7 +1127,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1139,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.27631578947368424</c:v>
+                  <c:v>0.77142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5s</c:v>
+                  <c:v>depth etroit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1194,7 +1194,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.72549019607843135</c:v>
+                  <c:v>0.75177304964539005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,7 +1206,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.48684210526315791</c:v>
+                  <c:v>0.69736842105263153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77477477477477474</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,7 +1273,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.56578947368421051</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,7 +1294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5l</c:v>
+                  <c:v>depth large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,7 +1328,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.67901234567901236</c:v>
+                  <c:v>0.73134328358208955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1340,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,15 +3392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>463549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3415,8 +3415,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8315324" y="3194050"/>
-          <a:ext cx="7388225" cy="4546599"/>
+          <a:off x="8175624" y="3048000"/>
+          <a:ext cx="7388225" cy="4467224"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3517,8 +3517,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9533451" y="3773714"/>
-              <a:ext cx="5956136" cy="2766786"/>
+              <a:off x="9471389" y="3683484"/>
+              <a:ext cx="5956137" cy="2766786"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3563,7 +3563,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9577831" y="3764643"/>
+              <a:off x="9133055" y="3323267"/>
               <a:ext cx="6084455" cy="2812143"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -3981,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4030,64 +4030,64 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <f>C3+F3</f>
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <f>D3+E3</f>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <f>C3/G3</f>
-        <v>0.27631578947368424</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="J3">
         <f>D3/H3</f>
-        <v>0.18461538461538463</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="K3">
         <f>I3</f>
-        <v>0.27631578947368424</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="L3">
         <f>C3/(C3+D3)</f>
-        <v>0.77777777777777779</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M3">
         <f>(C3+E3)/(G3+H3)</f>
-        <v>0.43778801843317972</v>
+        <v>0.62601626016260159</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G6" si="0">C4+F4</f>
@@ -4099,40 +4099,40 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I6" si="2">C4/G4</f>
-        <v>0.48684210526315791</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J6" si="3">D4/H4</f>
-        <v>0.43076923076923079</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" si="4">I4</f>
-        <v>0.48684210526315791</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L6" si="5">C4/(C4+D4)</f>
-        <v>0.72549019607843135</v>
+        <v>0.75177304964539005</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M6" si="6">(C4+E4)/(G4+H4)</f>
-        <v>0.51152073732718895</v>
+        <v>0.62672811059907829</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -4144,68 +4144,68 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.56578947368421051</v>
+        <v>0.77631578947368418</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.38461538461538464</v>
+        <v>0.52307692307692311</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.56578947368421051</v>
+        <v>0.77631578947368418</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
-        <v>0.77477477477477474</v>
+        <v>0.77631578947368418</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
-        <v>0.58064516129032262</v>
+        <v>0.68663594470046085</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f>D6+E6</f>
         <v>53</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.7857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.49056603773584906</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.7857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>0.67901234567901236</v>
+        <v>0.73134328358208955</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.68292682926829273</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare/depthmap/result-etroit.xlsx
+++ b/result/compare/depthmap/result-etroit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55ED3B-0ADB-4785-ADC8-697E81FC35CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC452511-F80A-49D0-BE1E-C46C425EAB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Modèle</t>
   </si>
@@ -73,13 +73,7 @@
     <t>yolov5m</t>
   </si>
   <si>
-    <t>depth large</t>
-  </si>
-  <si>
-    <t>depth etroit</t>
-  </si>
-  <si>
-    <t>yolo large</t>
+    <t>depthmap</t>
   </si>
 </sst>
 </file>
@@ -115,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,145 +427,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>yolo large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.56603773584905659</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.77142857142857146</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B210-406A-ADFD-C9E2AF4F2805}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>depth etroit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.69736842105263153</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B210-406A-ADFD-C9E2AF4F2805}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$5</c:f>
+              <c:f>Feuil1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -603,24 +464,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$J$5</c:f>
+              <c:f>Feuil1!$J$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.52307692307692311</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$I$5</c:f>
+              <c:f>Feuil1!$I$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.72368421052631582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,11 +498,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$6</c:f>
+              <c:f>Feuil1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depth large</c:v>
+                  <c:v>depthmap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -670,24 +531,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$J$6</c:f>
+              <c:f>Feuil1!$J$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33962264150943394</c:v>
+                  <c:v>0.52307692307692311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$I$6</c:f>
+              <c:f>Feuil1!$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,6 +570,170 @@
         </c:dLbls>
         <c:axId val="92701711"/>
         <c:axId val="92704623"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B210-406A-ADFD-C9E2AF4F2805}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B210-406A-ADFD-C9E2AF4F2805}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="92701711"/>
@@ -773,7 +798,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -891,7 +916,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1085,145 +1110,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>yolo large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6428571428571429</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.77142857142857146</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BF2-FB48-836A-FE1FBAD5C74E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>depth etroit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.75177304964539005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.69736842105263153</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4BF2-FB48-836A-FE1FBAD5C74E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$5</c:f>
+              <c:f>Feuil1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,24 +1147,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$L$5</c:f>
+              <c:f>Feuil1!$L$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$K$5</c:f>
+              <c:f>Feuil1!$K$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.72368421052631582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,11 +1181,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$6</c:f>
+              <c:f>Feuil1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depth large</c:v>
+                  <c:v>depthmap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1323,24 +1214,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$L$6</c:f>
+              <c:f>Feuil1!$L$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.73134328358208955</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$K$6</c:f>
+              <c:f>Feuil1!$K$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,6 +1253,170 @@
         </c:dLbls>
         <c:axId val="1445837904"/>
         <c:axId val="1481485856"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1445837904"/>
@@ -1441,7 +1496,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1559,7 +1614,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3357,13 +3412,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3393,13 +3448,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3415,7 +3470,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8175624" y="3048000"/>
+          <a:off x="8175624" y="2686050"/>
           <a:ext cx="7388225" cy="4467224"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
@@ -3517,7 +3572,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9471389" y="3683484"/>
+              <a:off x="9595513" y="3743680"/>
               <a:ext cx="5956137" cy="2766786"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -3563,7 +3618,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9133055" y="3323267"/>
+              <a:off x="9619207" y="3453693"/>
               <a:ext cx="6084455" cy="2812143"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -3647,13 +3702,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3979,15 +4034,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="B2:N6"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4024,189 +4079,99 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>0</v>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>110</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="0">C3+F3</f>
+        <v>152</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3" si="1">D3+E3</f>
+        <v>65</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I4" si="2">C3/G3</f>
+        <v>0.72368421052631582</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J4" si="3">D3/H3</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K4" si="4">I3</f>
+        <v>0.72368421052631582</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L4" si="5">C3/(C3+D3)</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M4" si="6">(C3+E3)/(G3+H3)</f>
+        <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>15</v>
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="C3">
-        <v>54</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <f>C3+F3</f>
-        <v>70</v>
-      </c>
-      <c r="H3">
-        <f>D3+E3</f>
-        <v>53</v>
-      </c>
-      <c r="I3">
-        <f>C3/G3</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="J3">
-        <f>D3/H3</f>
-        <v>0.56603773584905659</v>
-      </c>
-      <c r="K3">
-        <f>I3</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="L3">
-        <f>C3/(C3+D3)</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="M3">
-        <f>(C3+E3)/(G3+H3)</f>
-        <v>0.62601626016260159</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>106</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G6" si="0">C4+F4</f>
-        <v>152</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H6" si="1">D4+E4</f>
-        <v>65</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I6" si="2">C4/G4</f>
-        <v>0.69736842105263153</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J6" si="3">D4/H4</f>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K6" si="4">I4</f>
-        <v>0.69736842105263153</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L6" si="5">C4/(C4+D4)</f>
-        <v>0.75177304964539005</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M6" si="6">(C4+E4)/(G4+H4)</f>
-        <v>0.62672811059907829</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+      <c r="C4" s="1">
         <v>118</v>
       </c>
-      <c r="D5">
+      <c r="D4" s="1">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="E4" s="1">
         <v>31</v>
       </c>
-      <c r="F5">
+      <c r="F4" s="1">
         <v>34</v>
       </c>
-      <c r="G5">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="H4" s="1">
+        <f>D4+E4</f>
         <v>65</v>
       </c>
-      <c r="I5">
+      <c r="I4" s="1">
         <f t="shared" si="2"/>
         <v>0.77631578947368418</v>
       </c>
-      <c r="J5">
+      <c r="J4" s="1">
         <f t="shared" si="3"/>
         <v>0.52307692307692311</v>
       </c>
-      <c r="K5">
+      <c r="K4" s="1">
         <f t="shared" si="4"/>
         <v>0.77631578947368418</v>
       </c>
-      <c r="L5">
+      <c r="L4" s="1">
         <f t="shared" si="5"/>
         <v>0.77631578947368418</v>
       </c>
-      <c r="M5">
+      <c r="M4" s="1">
         <f t="shared" si="6"/>
         <v>0.68663594470046085</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="H6">
-        <f>D6+E6</f>
-        <v>53</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.33962264150943394</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>0.73134328358208955</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>0.68292682926829273</v>
-      </c>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/compare/depthmap/result-etroit.xlsx
+++ b/result/compare/depthmap/result-etroit.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC452511-F80A-49D0-BE1E-C46C425EAB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B461A-C588-C54A-A781-20B6D68A5CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3449,13 +3452,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>555624</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3470,10 +3473,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8175624" y="2686050"/>
-          <a:ext cx="7388225" cy="4467224"/>
-          <a:chOff x="8950324" y="3302000"/>
-          <a:chExt cx="8023225" cy="4705349"/>
+          <a:off x="8810624" y="2819399"/>
+          <a:ext cx="8023225" cy="4709160"/>
+          <a:chOff x="8950324" y="3301999"/>
+          <a:chExt cx="8023225" cy="4709160"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3489,10 +3492,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8950324" y="3302000"/>
-            <a:ext cx="8023225" cy="4705349"/>
-            <a:chOff x="8950324" y="3302000"/>
-            <a:chExt cx="8023225" cy="4705349"/>
+            <a:off x="8950324" y="3301999"/>
+            <a:ext cx="8023225" cy="4709160"/>
+            <a:chOff x="8950324" y="3301999"/>
+            <a:chExt cx="8023225" cy="4709160"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:graphicFrame macro="">
@@ -3507,8 +3510,8 @@
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="8950324" y="3302000"/>
-            <a:ext cx="8023225" cy="4705349"/>
+            <a:off x="8950324" y="3301999"/>
+            <a:ext cx="8023225" cy="4709160"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3529,8 +3532,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9525000" y="3771900"/>
-              <a:ext cx="7277100" cy="3378200"/>
+              <a:off x="9592129" y="3762829"/>
+              <a:ext cx="7137399" cy="3378200"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3572,8 +3575,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9595513" y="3743680"/>
-              <a:ext cx="5956137" cy="2766786"/>
+              <a:off x="9592129" y="3766457"/>
+              <a:ext cx="5817158" cy="2765894"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3618,8 +3621,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9619207" y="3453693"/>
-              <a:ext cx="6084455" cy="2812143"/>
+              <a:off x="9628414" y="3757386"/>
+              <a:ext cx="5329542" cy="2521857"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -4036,13 +4039,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>0.68663594470046085</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/result/compare/depthmap/result-etroit.xlsx
+++ b/result/compare/depthmap/result-etroit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B461A-C588-C54A-A781-20B6D68A5CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C95A22-37CB-4347-BC81-25DB47D172EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3473,8 +3474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8810624" y="2819399"/>
-          <a:ext cx="8023225" cy="4709160"/>
+          <a:off x="8175624" y="2686049"/>
+          <a:ext cx="7388225" cy="4474210"/>
           <a:chOff x="8950324" y="3301999"/>
           <a:chExt cx="8023225" cy="4709160"/>
         </a:xfrm>
@@ -4039,32 +4040,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="8" width="10.90625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
@@ -4083,27 +4087,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>110</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>35</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>42</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G4" si="0">C3+F3</f>
         <v>152</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f t="shared" ref="H3" si="1">D3+E3</f>
         <v>65</v>
       </c>
@@ -4128,27 +4132,27 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>118</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>34</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>31</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>34</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f>D4+E4</f>
         <v>65</v>
       </c>
@@ -4173,7 +4177,10 @@
         <v>0.68663594470046085</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/result/compare/depthmap/result-etroit.xlsx
+++ b/result/compare/depthmap/result-etroit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\depthmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C95A22-37CB-4347-BC81-25DB47D172EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F64BD-98C6-2E4C-A886-A57805184F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>yolov5m</t>
+    <t>Depth map only</t>
   </si>
   <si>
-    <t>depthmap</t>
+    <t>Yolov5m driven</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -453,14 +453,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -506,7 +506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -520,14 +520,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -747,6 +747,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -811,8 +825,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -926,8 +940,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1122,7 +1142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,14 +1156,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1189,7 +1209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1203,14 +1223,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2379,7 +2399,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2406,8 +2426,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2487,11 +2507,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2502,11 +2517,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2518,7 +2528,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2538,9 +2548,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2553,10 +2560,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2596,22 +2603,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2716,8 +2724,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2849,19 +2857,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2875,6 +2884,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3474,8 +3494,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8175624" y="2686049"/>
-          <a:ext cx="7388225" cy="4474210"/>
+          <a:off x="8810624" y="2819399"/>
+          <a:ext cx="8023225" cy="4709160"/>
           <a:chOff x="8950324" y="3301999"/>
           <a:chExt cx="8023225" cy="4709160"/>
         </a:xfrm>
@@ -3529,7 +3549,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
@@ -3539,7 +3561,7 @@
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3576,18 +3598,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9592129" y="3766457"/>
+              <a:off x="9604829" y="3753757"/>
               <a:ext cx="5817158" cy="2765894"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3622,15 +3641,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9628414" y="3757386"/>
+              <a:off x="9615714" y="3757386"/>
               <a:ext cx="5329542" cy="2521857"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -4041,15 +4060,15 @@
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4087,9 +4106,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>110</v>
@@ -4132,9 +4151,9 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>118</v>
@@ -4177,10 +4196,10 @@
         <v>0.68663594470046085</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J8" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/result/compare/depthmap/result-etroit.xlsx
+++ b/result/compare/depthmap/result-etroit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/depthmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F64BD-98C6-2E4C-A886-A57805184F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37371E-FDFF-3D4F-AC85-2657B690DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Roc Space</a:t>
+              <a:t>ROC Space</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4059,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
